--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,26 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Postman_RESTful-Booker_API-Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549FC40-ACD9-459D-952A-5C929B7EF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Analytics" sheetId="1" r:id="rId1"/>
+    <sheet name="TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Total TC</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>RESTful Booker</t>
+  </si>
+  <si>
+    <t>Mohamed Elbadri</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>End point</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Path parm</t>
+  </si>
+  <si>
+    <t>Query parm</t>
+  </si>
+  <si>
+    <t>Enviroment</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Request Body</t>
+  </si>
+  <si>
+    <t>Expected responce</t>
+  </si>
+  <si>
+    <t>Actual response</t>
+  </si>
+  <si>
+    <t>Expected status</t>
+  </si>
+  <si>
+    <t>Actual status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC_Auth_001</t>
+  </si>
+  <si>
+    <t>Create new token</t>
+  </si>
+  <si>
+    <t>Verify with valid username and password</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>https://restful-booker.herokuapp.com</t>
+  </si>
+  <si>
+    <t>/auth</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Username = admin
+Password = password123</t>
+  </si>
+  <si>
+    <t>{  "username" : "admin",
+    "password" : "password123" }</t>
+  </si>
+  <si>
+    <t>recieve a token</t>
+  </si>
+  <si>
+    <t>token received</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +161,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,17 +216,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,13 +606,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D5:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <f>COUNTIF(TC!A:A,"TC*")-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <f>COUNTIF(TC!O:O,"Pass")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <f>COUNTIF(TC!O:O,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C137EEF-127D-46E2-A2FE-1F4F82A6EA99}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5">
+        <v>200</v>
+      </c>
+      <c r="N2" s="5">
+        <v>200</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
+      <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
+      <formula1>"Not Executed, Pass, Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9F7406EC-F25F-4FBF-9D75-E5CB2CB345E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Postman_RESTful-Booker_API-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549FC40-ACD9-459D-952A-5C929B7EF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC5C92-FF6A-4211-9233-D7937CC9A24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
   <si>
     <t>API</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Request Body</t>
   </si>
   <si>
-    <t>Expected responce</t>
-  </si>
-  <si>
     <t>Actual response</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>Create new token</t>
-  </si>
-  <si>
-    <t>Verify with valid username and password</t>
   </si>
   <si>
     <t>POST</t>
@@ -143,10 +137,316 @@
     <t>recieve a token</t>
   </si>
   <si>
-    <t>token received</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>TC_Auth_002</t>
+  </si>
+  <si>
+    <t>TC_Auth_003</t>
+  </si>
+  <si>
+    <t>Verify response type is json</t>
+  </si>
+  <si>
+    <t>Verify response performance</t>
+  </si>
+  <si>
+    <t>Verify response size</t>
+  </si>
+  <si>
+    <t>Verify response status</t>
+  </si>
+  <si>
+    <t>TC_Auth_004</t>
+  </si>
+  <si>
+    <t>TC_Auth_005</t>
+  </si>
+  <si>
+    <t>Expected response</t>
+  </si>
+  <si>
+    <t>response formate is json</t>
+  </si>
+  <si>
+    <t>response time is 10 ms</t>
+  </si>
+  <si>
+    <t>response size is 190 B</t>
+  </si>
+  <si>
+    <t>response status is 200</t>
+  </si>
+  <si>
+    <t>TC_Auth_006</t>
+  </si>
+  <si>
+    <t>Verify response body with invalid data</t>
+  </si>
+  <si>
+    <t>Verify response body with valid data</t>
+  </si>
+  <si>
+    <t>Username = koko
+Password = koko123</t>
+  </si>
+  <si>
+    <t>{  "username" : "koko",
+    "password" : "koko123" }</t>
+  </si>
+  <si>
+    <t>token not recived</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>TC_CB_001</t>
+  </si>
+  <si>
+    <t>TC_CB_002</t>
+  </si>
+  <si>
+    <t>TC_CB_003</t>
+  </si>
+  <si>
+    <t>TC_CB_004</t>
+  </si>
+  <si>
+    <t>TC_CB_005</t>
+  </si>
+  <si>
+    <t>TC_CB_006</t>
+  </si>
+  <si>
+    <t>Create new Booking</t>
+  </si>
+  <si>
+    <t>/booking</t>
+  </si>
+  <si>
+    <t>"firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 111,
+    "depositpaid" : true,
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+"additionalneeds" : "Breakfast"</t>
+  </si>
+  <si>
+    <t>{
+    "firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 111,
+    "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01" }
+"additionalneeds" : "Breakfast"
+    }</t>
+  </si>
+  <si>
+    <t>booking not created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 111,
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 111}
+ </t>
+  </si>
+  <si>
+    <t>TC_GB_001</t>
+  </si>
+  <si>
+    <t>TC_GB_002</t>
+  </si>
+  <si>
+    <t>TC_GB_003</t>
+  </si>
+  <si>
+    <t>TC_GB_004</t>
+  </si>
+  <si>
+    <t>TC_GB_005</t>
+  </si>
+  <si>
+    <t>TC_GB_006</t>
+  </si>
+  <si>
+    <t>Get booking data</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/booking/:id</t>
+  </si>
+  <si>
+    <t>Booking created 
+ID recived</t>
+  </si>
+  <si>
+    <t>id = 2</t>
+  </si>
+  <si>
+    <t>id = 200</t>
+  </si>
+  <si>
+    <t>Booking data recived</t>
+  </si>
+  <si>
+    <t>booking not recived</t>
+  </si>
+  <si>
+    <t>{ "id": "2"}</t>
+  </si>
+  <si>
+    <t>{ "id": "200"}</t>
+  </si>
+  <si>
+    <t>TC_MB_001</t>
+  </si>
+  <si>
+    <t>TC_MB_002</t>
+  </si>
+  <si>
+    <t>TC_MB_003</t>
+  </si>
+  <si>
+    <t>TC_MB_004</t>
+  </si>
+  <si>
+    <t>TC_MB_005</t>
+  </si>
+  <si>
+    <t>TC_MB_006</t>
+  </si>
+  <si>
+    <t>Modify Booking data</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>"ID" : 2
+"firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 222,
+    "depositpaid" : true,
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+"additionalneeds" : "Breakfast"</t>
+  </si>
+  <si>
+    <t>{
+    "firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 222,
+    "depositpaid" : true,
+    "bookingdates" : {
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01" }
+"additionalneeds" : "Breakfast"
+    }</t>
+  </si>
+  <si>
+    <t>"ID" : 200
+"firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 222,
+    "depositpaid" : true,
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+"additionalneeds" : "Breakfast"</t>
+  </si>
+  <si>
+    <t>Booking UPDATED</t>
+  </si>
+  <si>
+    <t>booking not UPDATED</t>
+  </si>
+  <si>
+    <t>TC_PMB_001</t>
+  </si>
+  <si>
+    <t>TC_PMB_002</t>
+  </si>
+  <si>
+    <t>TC_PMB_003</t>
+  </si>
+  <si>
+    <t>TC_PMB_004</t>
+  </si>
+  <si>
+    <t>TC_PMB_005</t>
+  </si>
+  <si>
+    <t>TC_PMB_006</t>
+  </si>
+  <si>
+    <t>Partial Modify 
+Booking data</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>{
+    "totalprice" : 333
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ID" : 2
+    "totalprice" : 333
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ID" : 200
+    "totalprice" : 333
+   </t>
+  </si>
+  <si>
+    <t>TC_DB_001</t>
+  </si>
+  <si>
+    <t>TC_DB_002</t>
+  </si>
+  <si>
+    <t>TC_DB_003</t>
+  </si>
+  <si>
+    <t>TC_DB_004</t>
+  </si>
+  <si>
+    <t>TC_DB_005</t>
+  </si>
+  <si>
+    <t>DELETE
+Booking data</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ID" : 2
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ID" : 200
+   </t>
+  </si>
+  <si>
+    <t>Booking DELETED</t>
+  </si>
+  <si>
+    <t>booking not DELETED</t>
+  </si>
+  <si>
+    <t>response status is 201</t>
   </si>
 </sst>
 </file>
@@ -194,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,16 +550,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,12 +565,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -298,36 +617,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -609,63 +898,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f>COUNTIF(TC!A:A,"TC*")-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f>COUNTIF(TC!O:O,"Pass")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f>COUNTIF(TC!O:O,"Fail")</f>
         <v>0</v>
       </c>
@@ -677,147 +966,1524 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C137EEF-127D-46E2-A2FE-1F4F82A6EA99}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="H32" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.7265625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>200</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>200</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>200</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>200</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>200</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>200</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>201</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="5">
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>201</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>201</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>201</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>201</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>201</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
         <v>200</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>200</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>200</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>200</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>200</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>200</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>200</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>200</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>200</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
+        <v>200</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
+        <v>200</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <v>200</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
+        <v>200</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
+        <v>200</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
+        <v>200</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <v>200</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <v>200</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>200</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
+        <v>201</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
+        <v>201</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <v>201</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
+        <v>201</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
+        <v>201</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Not Executed"</formula>
+  <mergeCells count="22">
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E9:E14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O2:O41">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Fail"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Fail"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
       <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O41" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
       <formula1>"Not Executed, Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9F7406EC-F25F-4FBF-9D75-E5CB2CB345E7}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{757C034E-C5F8-416B-9850-A7FC28AF8412}"/>
+    <hyperlink ref="E16" r:id="rId3" xr:uid="{6FBEFD0B-EFA9-407F-96BF-2003318799EE}"/>
+    <hyperlink ref="E23" r:id="rId4" xr:uid="{2E9DB0F8-3C4D-487B-ABDD-235E757BDF71}"/>
+    <hyperlink ref="E30" r:id="rId5" xr:uid="{476B2438-72A9-4B4A-9CB7-21530DD7EDC3}"/>
+    <hyperlink ref="E37" r:id="rId6" xr:uid="{D7ACD6F0-D3C7-48B7-986A-EA5C7AFC39E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Postman_RESTful-Booker_API-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC5C92-FF6A-4211-9233-D7937CC9A24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E732E794-9E52-4C45-9D45-57EE46419E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
   <si>
     <t>API</t>
   </si>
@@ -447,6 +447,21 @@
   </si>
   <si>
     <t>response status is 201</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>response time is 300 ms</t>
+  </si>
+  <si>
+    <t>response size is 27B</t>
+  </si>
+  <si>
+    <t>BETA</t>
   </si>
 </sst>
 </file>
@@ -542,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,15 +580,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,7 +589,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,13 +916,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
@@ -916,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
@@ -924,7 +938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
@@ -932,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
@@ -941,16 +955,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="7">
         <f>COUNTIF(TC!O:O,"Pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
@@ -968,29 +982,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C137EEF-127D-46E2-A2FE-1F4F82A6EA99}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="30.7265625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1037,11 +1051,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1050,7 +1064,7 @@
       <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1059,188 +1073,198 @@
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="M2" s="4">
         <v>200</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4">
+        <v>200</v>
+      </c>
       <c r="O2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="M3" s="4">
         <v>200</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <v>200</v>
+      </c>
       <c r="O3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="M4" s="4">
         <v>200</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4">
+        <v>200</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="M5" s="4">
         <v>200</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>200</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="M6" s="4">
         <v>200</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>200</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
@@ -1250,37 +1274,41 @@
       <c r="K7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="M7" s="4">
         <v>200</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>200</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1289,7 +1317,7 @@
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1301,10 +1329,10 @@
       <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1319,18 +1347,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
@@ -1340,8 +1368,8 @@
       <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1354,18 +1382,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
@@ -1375,8 +1403,8 @@
       <c r="H11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1389,18 +1417,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4" t="s">
         <v>59</v>
       </c>
@@ -1410,8 +1438,8 @@
       <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1424,18 +1452,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
@@ -1445,8 +1473,8 @@
       <c r="H13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1459,18 +1487,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
@@ -1498,28 +1526,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1528,7 +1556,7 @@
       <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1558,18 +1586,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4" t="s">
         <v>73</v>
       </c>
@@ -1597,18 +1625,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="4" t="s">
         <v>73</v>
       </c>
@@ -1636,18 +1664,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="4" t="s">
         <v>73</v>
       </c>
@@ -1675,18 +1703,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="4" t="s">
         <v>73</v>
       </c>
@@ -1714,18 +1742,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
         <v>73</v>
       </c>
@@ -1753,28 +1781,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1783,7 +1811,7 @@
       <c r="D23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1795,10 +1823,10 @@
       <c r="H23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="11" t="s">
         <v>90</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -1813,18 +1841,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -1834,8 +1862,8 @@
       <c r="H24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="4" t="s">
         <v>41</v>
       </c>
@@ -1848,18 +1876,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4" t="s">
         <v>73</v>
       </c>
@@ -1869,8 +1897,8 @@
       <c r="H25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1883,18 +1911,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1904,8 +1932,8 @@
       <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="4" t="s">
         <v>43</v>
       </c>
@@ -1918,18 +1946,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4" t="s">
         <v>73</v>
       </c>
@@ -1939,8 +1967,8 @@
       <c r="H27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="4" t="s">
         <v>44</v>
       </c>
@@ -1953,18 +1981,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4" t="s">
         <v>73</v>
       </c>
@@ -1992,28 +2020,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2022,7 +2050,7 @@
       <c r="D30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2034,10 +2062,10 @@
       <c r="H30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="11" t="s">
         <v>102</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -2052,18 +2080,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4" t="s">
         <v>73</v>
       </c>
@@ -2073,8 +2101,8 @@
       <c r="H31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="4" t="s">
         <v>41</v>
       </c>
@@ -2087,18 +2115,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4" t="s">
         <v>73</v>
       </c>
@@ -2108,8 +2136,8 @@
       <c r="H32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="4" t="s">
         <v>42</v>
       </c>
@@ -2122,18 +2150,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="4" t="s">
         <v>73</v>
       </c>
@@ -2143,8 +2171,8 @@
       <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="4" t="s">
         <v>43</v>
       </c>
@@ -2157,18 +2185,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
         <v>73</v>
       </c>
@@ -2178,8 +2206,8 @@
       <c r="H34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="4" t="s">
         <v>44</v>
       </c>
@@ -2192,18 +2220,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
         <v>73</v>
       </c>
@@ -2231,28 +2259,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2261,7 +2289,7 @@
       <c r="D37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2273,10 +2301,10 @@
       <c r="H37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -2291,18 +2319,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2312,8 +2340,8 @@
       <c r="H38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="4" t="s">
         <v>42</v>
       </c>
@@ -2326,18 +2354,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="4" t="s">
         <v>73</v>
       </c>
@@ -2347,8 +2375,8 @@
       <c r="H39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="4" t="s">
         <v>43</v>
       </c>
@@ -2361,18 +2389,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="4" t="s">
         <v>73</v>
       </c>
@@ -2382,8 +2410,8 @@
       <c r="H40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="4" t="s">
         <v>116</v>
       </c>
@@ -2396,18 +2424,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
@@ -2420,7 +2448,7 @@
       <c r="I41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="4" t="s">
         <v>115</v>
       </c>
@@ -2434,18 +2462,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="B16:B21"/>
+  <mergeCells count="23">
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="B23:B28"/>
@@ -2457,6 +2474,18 @@
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E9:E14"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="J30:J34"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O41">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -2469,12 +2498,18 @@
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
       <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O41" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
       <formula1>"Not Executed, Pass, Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L30:L31 L37:L41 L30:L35 L24:L28 L23 L16:L21 L9:L14 L2:L7" xr:uid="{985A38C1-7417-4F21-A6E4-784F75BC2C18}">
+      <formula1>"As Expected, Not As Expected"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7 N9:N14 N16:N21 N23:N28 N30:N35 N37:N41" xr:uid="{8C1AE69D-A4DF-4E64-B9F8-7E08502C8A9A}">
+      <formula1>"200,201,400,404"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Postman_RESTful-Booker_API-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E732E794-9E52-4C45-9D45-57EE46419E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F81A4-7504-4C6E-B887-4430F75B6877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="128">
   <si>
     <t>API</t>
   </si>
@@ -293,9 +293,6 @@
     <t>id = 2</t>
   </si>
   <si>
-    <t>id = 200</t>
-  </si>
-  <si>
     <t>Booking data recived</t>
   </si>
   <si>
@@ -462,6 +459,30 @@
   </si>
   <si>
     <t>BETA</t>
+  </si>
+  <si>
+    <t>response ID is number</t>
+  </si>
+  <si>
+    <t>response size isto be 
+below 1000 B</t>
+  </si>
+  <si>
+    <t>response time is 
+to be between 200 ms
+500 ms</t>
+  </si>
+  <si>
+    <t>/:id</t>
+  </si>
+  <si>
+    <t>response time is 700 ms</t>
+  </si>
+  <si>
+    <t>response size is 180 B</t>
+  </si>
+  <si>
+    <t>id = "200"</t>
   </si>
 </sst>
 </file>
@@ -592,10 +613,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,7 +982,7 @@
       </c>
       <c r="E9" s="7">
         <f>COUNTIF(TC!O:O,"Pass")</f>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -982,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C137EEF-127D-46E2-A2FE-1F4F82A6EA99}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1076,7 @@
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1064,7 +1085,7 @@
       <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1073,8 +1094,8 @@
       <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>121</v>
+      <c r="H2" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>29</v>
@@ -1086,185 +1107,185 @@
         <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="4">
+        <v>200</v>
+      </c>
+      <c r="N2" s="4">
+        <v>200</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M2" s="4">
-        <v>200</v>
-      </c>
-      <c r="N2" s="4">
-        <v>200</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="4">
+        <v>200</v>
+      </c>
+      <c r="N3" s="4">
+        <v>200</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M3" s="4">
-        <v>200</v>
-      </c>
-      <c r="N3" s="4">
-        <v>200</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="4">
+        <v>200</v>
+      </c>
+      <c r="N4" s="4">
+        <v>200</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M4" s="4">
-        <v>200</v>
-      </c>
-      <c r="N4" s="4">
-        <v>200</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="4">
+        <v>200</v>
+      </c>
+      <c r="N5" s="4">
+        <v>200</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M5" s="4">
-        <v>200</v>
-      </c>
-      <c r="N5" s="4">
-        <v>200</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="4">
+        <v>200</v>
+      </c>
+      <c r="N6" s="4">
+        <v>200</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M6" s="4">
-        <v>200</v>
-      </c>
-      <c r="N6" s="4">
-        <v>200</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
@@ -1275,16 +1296,16 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="4">
+        <v>200</v>
+      </c>
+      <c r="N7" s="4">
+        <v>200</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M7" s="4">
-        <v>200</v>
-      </c>
-      <c r="N7" s="4">
-        <v>200</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1329,7 @@
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1317,7 +1338,7 @@
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1326,8 +1347,8 @@
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
+      <c r="H9" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>60</v>
@@ -1338,176 +1359,186 @@
       <c r="K9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M9" s="4">
-        <v>201</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="N9" s="4">
+        <v>200</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H10" s="12"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M10" s="4">
-        <v>201</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="N10" s="4">
+        <v>200</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="K11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M11" s="4">
-        <v>201</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="N11" s="4">
+        <v>200</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="4"/>
+      <c r="K12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M12" s="4">
-        <v>201</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="N12" s="4">
+        <v>200</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M13" s="4">
-        <v>201</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="N13" s="4">
+        <v>200</v>
+      </c>
       <c r="O13" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,13 +1548,17 @@
       <c r="K14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M14" s="4">
-        <v>201</v>
-      </c>
-      <c r="N14" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="N14" s="4">
+        <v>500</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,7 +1582,7 @@
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1556,229 +1591,243 @@
       <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M16" s="4">
         <v>200</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>200</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H17" s="12"/>
       <c r="I17" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M17" s="4">
         <v>200</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>200</v>
+      </c>
       <c r="O17" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M18" s="4">
         <v>200</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>200</v>
+      </c>
       <c r="O18" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M19" s="4">
         <v>200</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>200</v>
+      </c>
       <c r="O19" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M20" s="4">
         <v>200</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>200</v>
+      </c>
       <c r="O20" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="5" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="M21" s="4">
-        <v>200</v>
-      </c>
-      <c r="N21" s="4"/>
+        <v>404</v>
+      </c>
+      <c r="N21" s="4">
+        <v>404</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,18 +1849,18 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1824,13 +1873,13 @@
         <v>28</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
@@ -1843,16 +1892,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -1878,16 +1927,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="B25" s="12"/>
       <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="4" t="s">
         <v>73</v>
       </c>
@@ -1913,16 +1962,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1948,16 +1997,16 @@
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E27" s="13"/>
       <c r="F27" s="4" t="s">
         <v>73</v>
       </c>
@@ -1983,16 +2032,16 @@
     </row>
     <row r="28" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="4" t="s">
         <v>73</v>
       </c>
@@ -2003,13 +2052,13 @@
         <v>28</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
@@ -2039,18 +2088,18 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2063,13 +2112,13 @@
         <v>28</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4">
@@ -2082,16 +2131,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="4" t="s">
         <v>73</v>
       </c>
@@ -2117,16 +2166,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E32" s="13"/>
       <c r="F32" s="4" t="s">
         <v>73</v>
       </c>
@@ -2152,16 +2201,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="13"/>
       <c r="F33" s="4" t="s">
         <v>73</v>
       </c>
@@ -2187,16 +2236,16 @@
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E34" s="13"/>
       <c r="F34" s="4" t="s">
         <v>73</v>
       </c>
@@ -2222,16 +2271,16 @@
     </row>
     <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E35" s="13"/>
       <c r="F35" s="4" t="s">
         <v>73</v>
       </c>
@@ -2242,13 +2291,13 @@
         <v>28</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4">
@@ -2278,18 +2327,18 @@
     </row>
     <row r="37" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2302,13 +2351,13 @@
         <v>28</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4">
@@ -2321,16 +2370,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E38" s="13"/>
       <c r="F38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2356,16 +2405,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E39" s="13"/>
       <c r="F39" s="4" t="s">
         <v>73</v>
       </c>
@@ -2391,16 +2440,16 @@
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="4" t="s">
         <v>73</v>
       </c>
@@ -2413,7 +2462,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4">
@@ -2426,16 +2475,16 @@
     </row>
     <row r="41" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E41" s="13"/>
       <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
@@ -2446,11 +2495,11 @@
         <v>28</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4">
@@ -2462,7 +2511,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="I37:I40"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="B23:B28"/>
@@ -2477,15 +2537,6 @@
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="E16:E21"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="J30:J34"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O41">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -2498,18 +2549,21 @@
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
       <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O41" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
       <formula1>"Not Executed, Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L30:L31 L37:L41 L30:L35 L24:L28 L23 L16:L21 L9:L14 L2:L7" xr:uid="{985A38C1-7417-4F21-A6E4-784F75BC2C18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:L41 L30:L35 L23:L28 L16:L21 L9:L14 L2:L7" xr:uid="{985A38C1-7417-4F21-A6E4-784F75BC2C18}">
       <formula1>"As Expected, Not As Expected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7 N9:N14 N16:N21 N23:N28 N30:N35 N37:N41" xr:uid="{8C1AE69D-A4DF-4E64-B9F8-7E08502C8A9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7 N37:N41 N16:N21 N23:N28 N30:N35 N9:N13" xr:uid="{8C1AE69D-A4DF-4E64-B9F8-7E08502C8A9A}">
       <formula1>"200,201,400,404"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14" xr:uid="{E3AEE3B8-697B-49F4-9950-093EF6C6A177}">
+      <formula1>"200,201,400,404,500"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Postman_RESTful-Booker_API-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F81A4-7504-4C6E-B887-4430F75B6877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F27933-E148-42BB-9D80-37F23C7A9CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="122">
   <si>
     <t>API</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>token not recived</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
   <si>
     <t>TC_CB_001</t>
@@ -283,9 +280,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>/booking/:id</t>
-  </si>
-  <si>
     <t>Booking created 
 ID recived</t>
   </si>
@@ -327,16 +321,6 @@
   </si>
   <si>
     <t>PUT</t>
-  </si>
-  <si>
-    <t>"ID" : 2
-"firstname" : "Jim",
-    "lastname" : "Brown",
-    "totalprice" : 222,
-    "depositpaid" : true,
-        "checkin" : "2018-01-01",
-        "checkout" : "2019-01-01"
-"additionalneeds" : "Breakfast"</t>
   </si>
   <si>
     <t>{
@@ -351,7 +335,104 @@
     }</t>
   </si>
   <si>
-    <t>"ID" : 200
+    <t>Booking UPDATED</t>
+  </si>
+  <si>
+    <t>booking not UPDATED</t>
+  </si>
+  <si>
+    <t>TC_PMB_001</t>
+  </si>
+  <si>
+    <t>TC_PMB_002</t>
+  </si>
+  <si>
+    <t>TC_PMB_003</t>
+  </si>
+  <si>
+    <t>TC_PMB_004</t>
+  </si>
+  <si>
+    <t>TC_PMB_005</t>
+  </si>
+  <si>
+    <t>Partial Modify 
+Booking data</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>TC_DB_001</t>
+  </si>
+  <si>
+    <t>TC_DB_002</t>
+  </si>
+  <si>
+    <t>TC_DB_003</t>
+  </si>
+  <si>
+    <t>TC_DB_004</t>
+  </si>
+  <si>
+    <t>DELETE
+Booking data</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ID" : 2
+   </t>
+  </si>
+  <si>
+    <t>Booking DELETED</t>
+  </si>
+  <si>
+    <t>response status is 201</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>response time is 300 ms</t>
+  </si>
+  <si>
+    <t>response size is 27B</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t>response ID is number</t>
+  </si>
+  <si>
+    <t>response size isto be 
+below 1000 B</t>
+  </si>
+  <si>
+    <t>response time is 
+to be between 200 ms
+500 ms</t>
+  </si>
+  <si>
+    <t>/:id</t>
+  </si>
+  <si>
+    <t>response time is 700 ms</t>
+  </si>
+  <si>
+    <t>response size is 180 B</t>
+  </si>
+  <si>
+    <t>id = "200"</t>
+  </si>
+  <si>
+    <t>"Token"
+"ID" : 2
 "firstname" : "Jim",
     "lastname" : "Brown",
     "totalprice" : 222,
@@ -361,128 +442,29 @@
 "additionalneeds" : "Breakfast"</t>
   </si>
   <si>
-    <t>Booking UPDATED</t>
-  </si>
-  <si>
-    <t>booking not UPDATED</t>
-  </si>
-  <si>
-    <t>TC_PMB_001</t>
-  </si>
-  <si>
-    <t>TC_PMB_002</t>
-  </si>
-  <si>
-    <t>TC_PMB_003</t>
-  </si>
-  <si>
-    <t>TC_PMB_004</t>
-  </si>
-  <si>
-    <t>TC_PMB_005</t>
-  </si>
-  <si>
-    <t>TC_PMB_006</t>
-  </si>
-  <si>
-    <t>Partial Modify 
-Booking data</t>
-  </si>
-  <si>
-    <t>PATCH</t>
+    <t>"Token"
+"ID" : 200
+"firstname" : "Jim",
+    "lastname" : "Brown",
+    "totalprice" : 222,
+    "depositpaid" : true,
+        "checkin" : "2018-01-01",
+        "checkout" : "2019-01-01"
+"additionalneeds" : "Breakfast"</t>
+  </si>
+  <si>
+    <t>response size is 1000 B</t>
   </si>
   <si>
     <t>{
-    "totalprice" : 333
+   "firsstname" : "mohamed"
     }</t>
   </si>
   <si>
-    <t xml:space="preserve">"ID" : 2
-    "totalprice" : 333
+    <t xml:space="preserve">"Token"
+"ID" : 2
+    "firsstname" : "mohamed"
    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ID" : 200
-    "totalprice" : 333
-   </t>
-  </si>
-  <si>
-    <t>TC_DB_001</t>
-  </si>
-  <si>
-    <t>TC_DB_002</t>
-  </si>
-  <si>
-    <t>TC_DB_003</t>
-  </si>
-  <si>
-    <t>TC_DB_004</t>
-  </si>
-  <si>
-    <t>TC_DB_005</t>
-  </si>
-  <si>
-    <t>DELETE
-Booking data</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ID" : 2
-   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ID" : 200
-   </t>
-  </si>
-  <si>
-    <t>Booking DELETED</t>
-  </si>
-  <si>
-    <t>booking not DELETED</t>
-  </si>
-  <si>
-    <t>response status is 201</t>
-  </si>
-  <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>response time is 300 ms</t>
-  </si>
-  <si>
-    <t>response size is 27B</t>
-  </si>
-  <si>
-    <t>BETA</t>
-  </si>
-  <si>
-    <t>response ID is number</t>
-  </si>
-  <si>
-    <t>response size isto be 
-below 1000 B</t>
-  </si>
-  <si>
-    <t>response time is 
-to be between 200 ms
-500 ms</t>
-  </si>
-  <si>
-    <t>/:id</t>
-  </si>
-  <si>
-    <t>response time is 700 ms</t>
-  </si>
-  <si>
-    <t>response size is 180 B</t>
-  </si>
-  <si>
-    <t>id = "200"</t>
   </si>
 </sst>
 </file>
@@ -973,7 +955,7 @@
       </c>
       <c r="E8" s="7">
         <f>COUNTIF(TC!A:A,"TC*")-1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -982,7 +964,7 @@
       </c>
       <c r="E9" s="7">
         <f>COUNTIF(TC!O:O,"Pass")</f>
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -1001,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C137EEF-127D-46E2-A2FE-1F4F82A6EA99}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1077,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>29</v>
@@ -1107,7 +1089,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M2" s="4">
         <v>200</v>
@@ -1116,7 +1098,7 @@
         <v>200</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1126,7 @@
         <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M3" s="4">
         <v>200</v>
@@ -1153,7 +1135,7 @@
         <v>200</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,10 +1160,10 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M4" s="4">
         <v>200</v>
@@ -1190,7 +1172,7 @@
         <v>200</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1215,10 +1197,10 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M5" s="4">
         <v>200</v>
@@ -1227,7 +1209,7 @@
         <v>200</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,7 +1237,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M6" s="4">
         <v>200</v>
@@ -1264,7 +1246,7 @@
         <v>200</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -1296,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M7" s="4">
         <v>200</v>
@@ -1305,7 +1287,7 @@
         <v>200</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,10 +1309,10 @@
     </row>
     <row r="9" spans="1:15" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>47</v>
@@ -1342,25 +1324,25 @@
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M9" s="4">
         <v>200</v>
@@ -1369,12 +1351,12 @@
         <v>200</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
@@ -1385,7 +1367,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>28</v>
@@ -1394,10 +1376,10 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M10" s="4">
         <v>200</v>
@@ -1406,12 +1388,12 @@
         <v>200</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
@@ -1422,7 +1404,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>28</v>
@@ -1431,10 +1413,10 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M11" s="4">
         <v>200</v>
@@ -1443,12 +1425,12 @@
         <v>200</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
@@ -1459,7 +1441,7 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>28</v>
@@ -1468,10 +1450,10 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M12" s="4">
         <v>200</v>
@@ -1480,12 +1462,12 @@
         <v>200</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
@@ -1496,7 +1478,7 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>28</v>
@@ -1508,7 +1490,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M13" s="4">
         <v>200</v>
@@ -1517,12 +1499,12 @@
         <v>200</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="4" t="s">
@@ -1533,23 +1515,23 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="K14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M14" s="4">
         <v>500</v>
@@ -1558,7 +1540,7 @@
         <v>500</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,40 +1562,40 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>124</v>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M16" s="4">
         <v>200</v>
@@ -1622,39 +1604,35 @@
         <v>200</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M17" s="4">
         <v>200</v>
@@ -1663,39 +1641,35 @@
         <v>200</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M18" s="4">
         <v>200</v>
@@ -1704,39 +1678,35 @@
         <v>200</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M19" s="4">
         <v>200</v>
@@ -1745,39 +1715,35 @@
         <v>200</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M20" s="4">
         <v>200</v>
@@ -1786,39 +1752,35 @@
         <v>200</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M21" s="4">
         <v>404</v>
@@ -1827,7 +1789,7 @@
         <v>404</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,224 +1811,218 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>28</v>
+      <c r="F23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M23" s="4">
         <v>200</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4">
+        <v>200</v>
+      </c>
       <c r="O23" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M24" s="4">
         <v>200</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4">
+        <v>200</v>
+      </c>
       <c r="O24" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M25" s="4">
         <v>200</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>200</v>
+      </c>
       <c r="O25" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M26" s="4">
         <v>200</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>200</v>
+      </c>
       <c r="O26" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M27" s="4">
         <v>200</v>
       </c>
-      <c r="N27" s="4"/>
+      <c r="N27" s="4">
+        <v>200</v>
+      </c>
       <c r="O27" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="5" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M28" s="4">
-        <v>200</v>
-      </c>
-      <c r="N28" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="N28" s="4">
+        <v>400</v>
+      </c>
       <c r="O28" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2088,441 +2044,348 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>28</v>
+      <c r="F30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M30" s="4">
         <v>200</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4">
+        <v>200</v>
+      </c>
       <c r="O30" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M31" s="4">
         <v>200</v>
       </c>
-      <c r="N31" s="4"/>
+      <c r="N31" s="4">
+        <v>200</v>
+      </c>
       <c r="O31" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M32" s="4">
         <v>200</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4">
+        <v>200</v>
+      </c>
       <c r="O32" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M33" s="4">
         <v>200</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4">
+        <v>200</v>
+      </c>
       <c r="O33" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M34" s="4">
         <v>200</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4">
+        <v>200</v>
+      </c>
       <c r="O34" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
-        <v>200</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36" s="4">
+        <v>201</v>
+      </c>
+      <c r="N36" s="4">
+        <v>201</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B37" s="11"/>
       <c r="C37" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L37" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M37" s="4">
         <v>201</v>
       </c>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4">
+        <v>201</v>
+      </c>
       <c r="O37" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M38" s="4">
         <v>201</v>
       </c>
-      <c r="N38" s="4"/>
+      <c r="N38" s="4">
+        <v>201</v>
+      </c>
       <c r="O38" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="M39" s="4">
         <v>201</v>
       </c>
-      <c r="N39" s="4"/>
+      <c r="N39" s="4">
+        <v>201</v>
+      </c>
       <c r="O39" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
-        <v>201</v>
-      </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>201</v>
-      </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="I37:I40"/>
+  <mergeCells count="36">
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="B23:B28"/>
@@ -2537,8 +2400,30 @@
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="E16:E21"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H36:H39"/>
   </mergeCells>
-  <conditionalFormatting sqref="O2:O41">
+  <conditionalFormatting sqref="O2:O39">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -2550,20 +2435,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
-      <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O41" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
-      <formula1>"Not Executed, Pass, Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:L41 L30:L35 L23:L28 L16:L21 L9:L14 L2:L7" xr:uid="{985A38C1-7417-4F21-A6E4-784F75BC2C18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L36:L39 L30:L34 L23:L28 L16:L21 L9:L14 L2:L7" xr:uid="{985A38C1-7417-4F21-A6E4-784F75BC2C18}">
       <formula1>"As Expected, Not As Expected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7 N37:N41 N16:N21 N23:N28 N30:N35 N9:N13" xr:uid="{8C1AE69D-A4DF-4E64-B9F8-7E08502C8A9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7 N36:N39 N16:N21 N23:N28 N30:N34 N9:N13" xr:uid="{8C1AE69D-A4DF-4E64-B9F8-7E08502C8A9A}">
       <formula1>"200,201,400,404"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14" xr:uid="{E3AEE3B8-697B-49F4-9950-093EF6C6A177}">
       <formula1>"200,201,400,404,500"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39" xr:uid="{EC8960A8-FDC9-4B9C-826A-84F392A22DAC}">
+      <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O39" xr:uid="{7A643C36-EEFF-41EF-8219-062DA5746BC9}">
+      <formula1>"Not Executed, Pass, Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2572,7 +2457,7 @@
     <hyperlink ref="E16" r:id="rId3" xr:uid="{6FBEFD0B-EFA9-407F-96BF-2003318799EE}"/>
     <hyperlink ref="E23" r:id="rId4" xr:uid="{2E9DB0F8-3C4D-487B-ABDD-235E757BDF71}"/>
     <hyperlink ref="E30" r:id="rId5" xr:uid="{476B2438-72A9-4B4A-9CB7-21530DD7EDC3}"/>
-    <hyperlink ref="E37" r:id="rId6" xr:uid="{D7ACD6F0-D3C7-48B7-986A-EA5C7AFC39E9}"/>
+    <hyperlink ref="E36" r:id="rId6" xr:uid="{D7ACD6F0-D3C7-48B7-986A-EA5C7AFC39E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
